--- a/data/pca/factorExposure/factorExposure_2012-06-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-06-27.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01710044711847675</v>
+        <v>0.02241754889172063</v>
       </c>
       <c r="C2">
-        <v>0.0294208341900303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02397898557267573</v>
+      </c>
+      <c r="D2">
+        <v>0.004535458056486342</v>
+      </c>
+      <c r="E2">
+        <v>-0.01979171946455259</v>
+      </c>
+      <c r="F2">
+        <v>-0.001854386602482739</v>
+      </c>
+      <c r="G2">
+        <v>-0.01083817639896291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +757,45 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06734132240678638</v>
+        <v>0.07574536819430293</v>
       </c>
       <c r="C4">
-        <v>0.06164273561500994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.04130020454757117</v>
+      </c>
+      <c r="D4">
+        <v>0.07022518031620605</v>
+      </c>
+      <c r="E4">
+        <v>0.001684248339929381</v>
+      </c>
+      <c r="F4">
+        <v>-0.03056525947858773</v>
+      </c>
+      <c r="G4">
+        <v>0.01433352797947429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +803,275 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.09711006776137956</v>
+        <v>0.1139300015621392</v>
       </c>
       <c r="C6">
-        <v>0.07000014099846742</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.04616139733985936</v>
+      </c>
+      <c r="D6">
+        <v>0.009256307252850494</v>
+      </c>
+      <c r="E6">
+        <v>-0.003669538172157944</v>
+      </c>
+      <c r="F6">
+        <v>-0.04341933048822338</v>
+      </c>
+      <c r="G6">
+        <v>-0.00384730567256609</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.04419030513265387</v>
+        <v>0.05434213362781908</v>
       </c>
       <c r="C7">
-        <v>0.035134507208053</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.02600381975689884</v>
+      </c>
+      <c r="D7">
+        <v>0.0344053617322185</v>
+      </c>
+      <c r="E7">
+        <v>-0.0217557020823584</v>
+      </c>
+      <c r="F7">
+        <v>-0.03336473956459497</v>
+      </c>
+      <c r="G7">
+        <v>0.04048040282104876</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.03244599312125701</v>
+        <v>0.03507786489959058</v>
       </c>
       <c r="C8">
-        <v>0.02826607229207836</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01703220972943304</v>
+      </c>
+      <c r="D8">
+        <v>0.03953166326214723</v>
+      </c>
+      <c r="E8">
+        <v>-0.007089645190193805</v>
+      </c>
+      <c r="F8">
+        <v>-0.04627066837624087</v>
+      </c>
+      <c r="G8">
+        <v>-0.02051304497551945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.0623312955264905</v>
+        <v>0.07199953052060673</v>
       </c>
       <c r="C9">
-        <v>0.04757653458307012</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.02990477858975041</v>
+      </c>
+      <c r="D9">
+        <v>0.06904480168930982</v>
+      </c>
+      <c r="E9">
+        <v>-0.0143677147515748</v>
+      </c>
+      <c r="F9">
+        <v>-0.04015786957717262</v>
+      </c>
+      <c r="G9">
+        <v>0.007586861672347713</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02707559305709208</v>
+        <v>0.03950548644270998</v>
       </c>
       <c r="C10">
-        <v>0.03904807102676499</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.03938150993774573</v>
+      </c>
+      <c r="D10">
+        <v>-0.1854576123283047</v>
+      </c>
+      <c r="E10">
+        <v>-0.04936937252650016</v>
+      </c>
+      <c r="F10">
+        <v>-0.03757167201537929</v>
+      </c>
+      <c r="G10">
+        <v>0.03106549087958824</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.06798583509243068</v>
+        <v>0.07568721821682403</v>
       </c>
       <c r="C11">
-        <v>0.05470021388614658</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.03182822380706816</v>
+      </c>
+      <c r="D11">
+        <v>0.06840694324189726</v>
+      </c>
+      <c r="E11">
+        <v>0.009608780829534723</v>
+      </c>
+      <c r="F11">
+        <v>-0.0380847359661859</v>
+      </c>
+      <c r="G11">
+        <v>0.02214577911638777</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.05173904240513554</v>
+        <v>0.06099486729934879</v>
       </c>
       <c r="C12">
-        <v>0.05307036067981336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03630919494923118</v>
+      </c>
+      <c r="D12">
+        <v>0.05183543073515521</v>
+      </c>
+      <c r="E12">
+        <v>-0.008986598804180672</v>
+      </c>
+      <c r="F12">
+        <v>-0.02886697179530605</v>
+      </c>
+      <c r="G12">
+        <v>0.02431422639004639</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.05875783176299151</v>
+        <v>0.06522680519039555</v>
       </c>
       <c r="C13">
-        <v>0.05359187412405515</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.0324989940069421</v>
+      </c>
+      <c r="D13">
+        <v>0.05153019645860916</v>
+      </c>
+      <c r="E13">
+        <v>-0.004961568734238609</v>
+      </c>
+      <c r="F13">
+        <v>-0.02083610991218892</v>
+      </c>
+      <c r="G13">
+        <v>0.008233831587521504</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.03297569551807185</v>
+        <v>0.03831311388331999</v>
       </c>
       <c r="C14">
-        <v>0.02772317237031703</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02055165466600704</v>
+      </c>
+      <c r="D14">
+        <v>0.009794381453940609</v>
+      </c>
+      <c r="E14">
+        <v>-0.01250409057788475</v>
+      </c>
+      <c r="F14">
+        <v>-0.0156540260337574</v>
+      </c>
+      <c r="G14">
+        <v>-0.002323785760561037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03939652335898477</v>
+        <v>0.04051557344695026</v>
       </c>
       <c r="C15">
-        <v>0.01335474325931799</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.003115129581178037</v>
+      </c>
+      <c r="D15">
+        <v>0.01771188657649768</v>
+      </c>
+      <c r="E15">
+        <v>-0.03775901458594555</v>
+      </c>
+      <c r="F15">
+        <v>-0.0006094050234664828</v>
+      </c>
+      <c r="G15">
+        <v>-0.01636346032593371</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05661809397364066</v>
+        <v>0.06205906378496368</v>
       </c>
       <c r="C16">
-        <v>0.04541348347942956</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02785648972060619</v>
+      </c>
+      <c r="D16">
+        <v>0.06065422991234296</v>
+      </c>
+      <c r="E16">
+        <v>0.001182857323057344</v>
+      </c>
+      <c r="F16">
+        <v>-0.03267922212163548</v>
+      </c>
+      <c r="G16">
+        <v>0.01011870673401466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1079,22 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1102,22 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.06193760004321482</v>
+        <v>0.06186677786507763</v>
       </c>
       <c r="C20">
-        <v>0.03888252260526012</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01848487874110786</v>
+      </c>
+      <c r="D20">
+        <v>0.04882519655311427</v>
+      </c>
+      <c r="E20">
+        <v>-0.01640951454191907</v>
+      </c>
+      <c r="F20">
+        <v>-0.02904016343064917</v>
+      </c>
+      <c r="G20">
+        <v>0.02112381501684647</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.0281176199169069</v>
+        <v>0.02369646676115467</v>
       </c>
       <c r="C21">
-        <v>-0.0006112093575960975</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.01112215218012685</v>
+      </c>
+      <c r="D21">
+        <v>0.03196562775694201</v>
+      </c>
+      <c r="E21">
+        <v>-0.09692213122467119</v>
+      </c>
+      <c r="F21">
+        <v>0.006842985258236262</v>
+      </c>
+      <c r="G21">
+        <v>-0.007393195518104327</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.06831122728475728</v>
+        <v>0.06584451782490228</v>
       </c>
       <c r="C22">
-        <v>0.07529374840324574</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.04435390925067746</v>
+      </c>
+      <c r="D22">
+        <v>0.1065294278435828</v>
+      </c>
+      <c r="E22">
+        <v>-0.6103766668051626</v>
+      </c>
+      <c r="F22">
+        <v>0.1415625345412385</v>
+      </c>
+      <c r="G22">
+        <v>0.02083562777504484</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.06909873500703746</v>
+        <v>0.06657039225274569</v>
       </c>
       <c r="C23">
-        <v>0.07484494685528623</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.04379131671532812</v>
+      </c>
+      <c r="D23">
+        <v>0.1076418463354167</v>
+      </c>
+      <c r="E23">
+        <v>-0.6096408834277404</v>
+      </c>
+      <c r="F23">
+        <v>0.1413899177305195</v>
+      </c>
+      <c r="G23">
+        <v>0.01871504211025813</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06473176344708483</v>
+        <v>0.07399432580291072</v>
       </c>
       <c r="C24">
-        <v>0.05433569079200287</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03368817971764278</v>
+      </c>
+      <c r="D24">
+        <v>0.06554797973444726</v>
+      </c>
+      <c r="E24">
+        <v>-0.00677629717508041</v>
+      </c>
+      <c r="F24">
+        <v>-0.04579603581507084</v>
+      </c>
+      <c r="G24">
+        <v>0.01041459856699088</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.06392523996024908</v>
+        <v>0.07173161567749052</v>
       </c>
       <c r="C25">
-        <v>0.05945518389998364</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.0387547546959868</v>
+      </c>
+      <c r="D25">
+        <v>0.06526743047995047</v>
+      </c>
+      <c r="E25">
+        <v>-0.00756491001168774</v>
+      </c>
+      <c r="F25">
+        <v>-0.03956237574089729</v>
+      </c>
+      <c r="G25">
+        <v>0.001481524288916755</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.03851804615304712</v>
+        <v>0.0406871518092172</v>
       </c>
       <c r="C26">
-        <v>0.01419508355154978</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.00518226551453138</v>
+      </c>
+      <c r="D26">
+        <v>0.02135090603401479</v>
+      </c>
+      <c r="E26">
+        <v>-0.03900941224185949</v>
+      </c>
+      <c r="F26">
+        <v>-0.02285403221429407</v>
+      </c>
+      <c r="G26">
+        <v>0.01755484564045359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1309,229 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.04874918799499129</v>
+        <v>0.07266919857880164</v>
       </c>
       <c r="C28">
-        <v>0.07450682120082505</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.07542311766518174</v>
+      </c>
+      <c r="D28">
+        <v>-0.3252918701337325</v>
+      </c>
+      <c r="E28">
+        <v>-0.04265518517308088</v>
+      </c>
+      <c r="F28">
+        <v>-0.0511005997474247</v>
+      </c>
+      <c r="G28">
+        <v>-0.02960095365226701</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.03506098408102321</v>
+        <v>0.04211231767108367</v>
       </c>
       <c r="C29">
-        <v>0.03238759555236162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02489379527636255</v>
+      </c>
+      <c r="D29">
+        <v>0.00979126632157482</v>
+      </c>
+      <c r="E29">
+        <v>-0.03753644211253709</v>
+      </c>
+      <c r="F29">
+        <v>-0.01230450191842326</v>
+      </c>
+      <c r="G29">
+        <v>0.01057986600818354</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.1152972967936058</v>
+        <v>0.1296518883642671</v>
       </c>
       <c r="C30">
-        <v>0.09903199469262851</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06405119629888764</v>
+      </c>
+      <c r="D30">
+        <v>0.1019256707904436</v>
+      </c>
+      <c r="E30">
+        <v>-0.03305404081739766</v>
+      </c>
+      <c r="F30">
+        <v>-0.017688199664516</v>
+      </c>
+      <c r="G30">
+        <v>0.004089408222629491</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.03781748148942052</v>
+        <v>0.04263682217761223</v>
       </c>
       <c r="C31">
-        <v>0.02664681969907804</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01573136737973304</v>
+      </c>
+      <c r="D31">
+        <v>0.02850031172643919</v>
+      </c>
+      <c r="E31">
+        <v>-0.02039193221291624</v>
+      </c>
+      <c r="F31">
+        <v>-0.0151958291644799</v>
+      </c>
+      <c r="G31">
+        <v>0.02257183021133252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.030644716963309</v>
+        <v>0.03226453878983056</v>
       </c>
       <c r="C32">
-        <v>0.02691631664605191</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01746184862675305</v>
+      </c>
+      <c r="D32">
+        <v>0.01933643245061424</v>
+      </c>
+      <c r="E32">
+        <v>-0.05938855742317467</v>
+      </c>
+      <c r="F32">
+        <v>0.01138521638960531</v>
+      </c>
+      <c r="G32">
+        <v>-0.02395687518080552</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07441394365684947</v>
+        <v>0.08796666955818556</v>
       </c>
       <c r="C33">
-        <v>0.05355150467690497</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.03406334486902796</v>
+      </c>
+      <c r="D33">
+        <v>0.06473243027673194</v>
+      </c>
+      <c r="E33">
+        <v>-0.01060934720482741</v>
+      </c>
+      <c r="F33">
+        <v>-0.008630667376891551</v>
+      </c>
+      <c r="G33">
+        <v>0.02389402902743276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04988590422260824</v>
+        <v>0.05632554232778505</v>
       </c>
       <c r="C34">
-        <v>0.03401425098662798</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01899601046477729</v>
+      </c>
+      <c r="D34">
+        <v>0.05905623685563727</v>
+      </c>
+      <c r="E34">
+        <v>-0.003343373419134167</v>
+      </c>
+      <c r="F34">
+        <v>-0.02740617032589885</v>
+      </c>
+      <c r="G34">
+        <v>0.003733861654643364</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.03676067253218145</v>
+        <v>0.03883204004978763</v>
       </c>
       <c r="C35">
-        <v>0.01416842953916508</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.005650805825164519</v>
+      </c>
+      <c r="D35">
+        <v>0.01007929685458281</v>
+      </c>
+      <c r="E35">
+        <v>-0.03046485558388328</v>
+      </c>
+      <c r="F35">
+        <v>0.003995583872413946</v>
+      </c>
+      <c r="G35">
+        <v>0.01547414140215251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01845115851017791</v>
+        <v>0.0230801894615806</v>
       </c>
       <c r="C36">
-        <v>0.01676607939086101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01115550566583211</v>
+      </c>
+      <c r="D36">
+        <v>0.01972565192159718</v>
+      </c>
+      <c r="E36">
+        <v>-0.03447506548406631</v>
+      </c>
+      <c r="F36">
+        <v>-0.02183387781291923</v>
+      </c>
+      <c r="G36">
+        <v>0.01597041015199792</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1539,114 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03750857544370234</v>
+        <v>0.04040643784788178</v>
       </c>
       <c r="C38">
-        <v>0.01295204202303446</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.003107376481689773</v>
+      </c>
+      <c r="D38">
+        <v>0.01048054580430626</v>
+      </c>
+      <c r="E38">
+        <v>-0.06074812253585464</v>
+      </c>
+      <c r="F38">
+        <v>0.02139270208987345</v>
+      </c>
+      <c r="G38">
+        <v>-0.01292917846044492</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08646223369559906</v>
+        <v>0.1002766591224117</v>
       </c>
       <c r="C39">
-        <v>0.0828943146247253</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.05513824100348666</v>
+      </c>
+      <c r="D39">
+        <v>0.08613860199352281</v>
+      </c>
+      <c r="E39">
+        <v>0.01876725275274778</v>
+      </c>
+      <c r="F39">
+        <v>-0.02261171389691892</v>
+      </c>
+      <c r="G39">
+        <v>-0.01792440968085653</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.06516969886156739</v>
+        <v>0.07271986168305945</v>
       </c>
       <c r="C40">
-        <v>0.05711088922070143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.03717762294891718</v>
+      </c>
+      <c r="D40">
+        <v>0.01323576107356446</v>
+      </c>
+      <c r="E40">
+        <v>-0.02429708432309402</v>
+      </c>
+      <c r="F40">
+        <v>0.04700021508384192</v>
+      </c>
+      <c r="G40">
+        <v>-0.05881896397395083</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.03838173578496288</v>
+        <v>0.04248707014077275</v>
       </c>
       <c r="C41">
-        <v>0.01793917691318834</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.008486978115455384</v>
+      </c>
+      <c r="D41">
+        <v>0.04136382651795318</v>
+      </c>
+      <c r="E41">
+        <v>-0.008173288914400978</v>
+      </c>
+      <c r="F41">
+        <v>0.00817271318573546</v>
+      </c>
+      <c r="G41">
+        <v>-0.005782645224665161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1654,68 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04082833858724647</v>
+        <v>0.04988643852651103</v>
       </c>
       <c r="C43">
-        <v>0.03803932611056381</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.02443427276435859</v>
+      </c>
+      <c r="D43">
+        <v>0.02925293885593377</v>
+      </c>
+      <c r="E43">
+        <v>-0.01676500362287111</v>
+      </c>
+      <c r="F43">
+        <v>-0.0134637655857226</v>
+      </c>
+      <c r="G43">
+        <v>0.01223998834520917</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.08771190912963797</v>
+        <v>0.09171966285413978</v>
       </c>
       <c r="C44">
-        <v>0.09595242762691462</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06363142568432603</v>
+      </c>
+      <c r="D44">
+        <v>0.06161987557362993</v>
+      </c>
+      <c r="E44">
+        <v>-0.09701015563240428</v>
+      </c>
+      <c r="F44">
+        <v>-0.06691895231945201</v>
+      </c>
+      <c r="G44">
+        <v>-0.009490233410774896</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1723,160 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02725446683245014</v>
+        <v>0.02882408284045747</v>
       </c>
       <c r="C46">
-        <v>0.01919745383830823</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.01140064022560318</v>
+      </c>
+      <c r="D46">
+        <v>0.03354938131490691</v>
+      </c>
+      <c r="E46">
+        <v>-0.01794068653713265</v>
+      </c>
+      <c r="F46">
+        <v>-0.01861404889088226</v>
+      </c>
+      <c r="G46">
+        <v>-0.006868029884221642</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.02922476097376998</v>
+        <v>0.03200035503715135</v>
       </c>
       <c r="C47">
-        <v>0.0223401201026463</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.01345752069280596</v>
+      </c>
+      <c r="D47">
+        <v>0.01863763403927155</v>
+      </c>
+      <c r="E47">
+        <v>-0.0494951110386072</v>
+      </c>
+      <c r="F47">
+        <v>-0.01537945373736945</v>
+      </c>
+      <c r="G47">
+        <v>0.02123829102367146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02709944214986932</v>
+        <v>0.03135678895832203</v>
       </c>
       <c r="C48">
-        <v>0.01970248507254199</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.01172312998683861</v>
+      </c>
+      <c r="D48">
+        <v>0.02996573673660707</v>
+      </c>
+      <c r="E48">
+        <v>-0.04395897754793179</v>
+      </c>
+      <c r="F48">
+        <v>-0.0194877634278351</v>
+      </c>
+      <c r="G48">
+        <v>0.006043875128689057</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1499109106709763</v>
+        <v>0.1745377481318933</v>
       </c>
       <c r="C49">
-        <v>0.0967963899868878</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.05873329875669317</v>
+      </c>
+      <c r="D49">
+        <v>0.009144817127848967</v>
+      </c>
+      <c r="E49">
+        <v>0.1347072023924076</v>
+      </c>
+      <c r="F49">
+        <v>-0.0200485525994002</v>
+      </c>
+      <c r="G49">
+        <v>0.05577465394112077</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.03280817274754121</v>
+        <v>0.04038950996379306</v>
       </c>
       <c r="C50">
-        <v>0.0274720113370103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.02192542830603582</v>
+      </c>
+      <c r="D50">
+        <v>0.03732388109168519</v>
+      </c>
+      <c r="E50">
+        <v>-0.04258188113703981</v>
+      </c>
+      <c r="F50">
+        <v>-0.02924747171139804</v>
+      </c>
+      <c r="G50">
+        <v>0.02280566498523742</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.02385207215744497</v>
+        <v>0.02538092183821416</v>
       </c>
       <c r="C51">
-        <v>0.01839524894172359</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.01072510225799247</v>
+      </c>
+      <c r="D51">
+        <v>0.02646915709357885</v>
+      </c>
+      <c r="E51">
+        <v>-0.01306471347292306</v>
+      </c>
+      <c r="F51">
+        <v>-0.004686877462811354</v>
+      </c>
+      <c r="G51">
+        <v>-0.00926537190147704</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1884,114 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1384804316811995</v>
+        <v>0.1584041736828323</v>
       </c>
       <c r="C53">
-        <v>0.1052034023859628</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.07023783765032639</v>
+      </c>
+      <c r="D53">
+        <v>0.02268787969254417</v>
+      </c>
+      <c r="E53">
+        <v>0.03910484532888407</v>
+      </c>
+      <c r="F53">
+        <v>-0.02660594472494913</v>
+      </c>
+      <c r="G53">
+        <v>-0.002365415455930283</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.0514406544639026</v>
+        <v>0.05655211821959191</v>
       </c>
       <c r="C54">
-        <v>0.02841766393616363</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01389512046021235</v>
+      </c>
+      <c r="D54">
+        <v>0.03765206617377601</v>
+      </c>
+      <c r="E54">
+        <v>-0.04228767175547868</v>
+      </c>
+      <c r="F54">
+        <v>-0.01576603093612364</v>
+      </c>
+      <c r="G54">
+        <v>0.004919057311770864</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.09314770753602418</v>
+        <v>0.1010433435346273</v>
       </c>
       <c r="C55">
-        <v>0.06649830257482649</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.04377777161143682</v>
+      </c>
+      <c r="D55">
+        <v>0.03171784139620926</v>
+      </c>
+      <c r="E55">
+        <v>-0.007336196428732159</v>
+      </c>
+      <c r="F55">
+        <v>-0.02949179719270055</v>
+      </c>
+      <c r="G55">
+        <v>-0.006003467182992503</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1346759601750252</v>
+        <v>0.1568416316520443</v>
       </c>
       <c r="C56">
-        <v>0.1130935286453005</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.07799138229878171</v>
+      </c>
+      <c r="D56">
+        <v>0.01689645322397853</v>
+      </c>
+      <c r="E56">
+        <v>0.03840141615435553</v>
+      </c>
+      <c r="F56">
+        <v>-0.05769551653722479</v>
+      </c>
+      <c r="G56">
+        <v>0.01313666630052335</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1999,896 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.1142379213521782</v>
+        <v>0.1045725462515878</v>
       </c>
       <c r="C58">
-        <v>0.03480815719972995</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.001827353092565303</v>
+      </c>
+      <c r="D58">
+        <v>0.0597229925855982</v>
+      </c>
+      <c r="E58">
+        <v>-0.1840299674158438</v>
+      </c>
+      <c r="F58">
+        <v>-0.0410437564469332</v>
+      </c>
+      <c r="G58">
+        <v>0.06848873265172191</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1011889860793068</v>
+        <v>0.1444603873090442</v>
       </c>
       <c r="C59">
-        <v>0.09036506939813085</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.08665746027097766</v>
+      </c>
+      <c r="D59">
+        <v>-0.3506046244257583</v>
+      </c>
+      <c r="E59">
+        <v>-0.04978280423780539</v>
+      </c>
+      <c r="F59">
+        <v>0.0242537345214821</v>
+      </c>
+      <c r="G59">
+        <v>0.02348676963224554</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.1795758295284962</v>
+        <v>0.2129520733519476</v>
       </c>
       <c r="C60">
-        <v>0.1222196913043542</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.08091130171091029</v>
+      </c>
+      <c r="D60">
+        <v>0.01273800574110723</v>
+      </c>
+      <c r="E60">
+        <v>0.07171766629293845</v>
+      </c>
+      <c r="F60">
+        <v>-0.03273907966854542</v>
+      </c>
+      <c r="G60">
+        <v>-0.03296010620036077</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.07472712679346434</v>
+        <v>0.08472823166735444</v>
       </c>
       <c r="C61">
-        <v>0.0608074915853778</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.03949924686236522</v>
+      </c>
+      <c r="D61">
+        <v>0.06220360896527444</v>
+      </c>
+      <c r="E61">
+        <v>0.0178813712184147</v>
+      </c>
+      <c r="F61">
+        <v>-0.01349972173809112</v>
+      </c>
+      <c r="G61">
+        <v>0.02116624347197321</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1134336349263919</v>
+        <v>0.13690716251563</v>
       </c>
       <c r="C62">
-        <v>0.08245905321335981</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.0584084008169187</v>
+      </c>
+      <c r="D62">
+        <v>0.02646949171973926</v>
+      </c>
+      <c r="E62">
+        <v>0.05584480586001434</v>
+      </c>
+      <c r="F62">
+        <v>-0.02358610010799108</v>
+      </c>
+      <c r="G62">
+        <v>-0.03455659989010802</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.04921482465010765</v>
+        <v>0.0515953898478162</v>
       </c>
       <c r="C63">
-        <v>0.02921104619267486</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01692663142339533</v>
+      </c>
+      <c r="D63">
+        <v>0.03023557463965808</v>
+      </c>
+      <c r="E63">
+        <v>-0.05071304149359987</v>
+      </c>
+      <c r="F63">
+        <v>-0.01480683863202248</v>
+      </c>
+      <c r="G63">
+        <v>-0.02117037794461461</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1050700308253747</v>
+        <v>0.111153709437856</v>
       </c>
       <c r="C64">
-        <v>0.05001494152754467</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.02457878539965097</v>
+      </c>
+      <c r="D64">
+        <v>0.04676276845604927</v>
+      </c>
+      <c r="E64">
+        <v>-0.02895079634291715</v>
+      </c>
+      <c r="F64">
+        <v>-0.0535265318582557</v>
+      </c>
+      <c r="G64">
+        <v>-0.02476960310033088</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.107435738652236</v>
+        <v>0.1229278363399483</v>
       </c>
       <c r="C65">
-        <v>0.06889786355626437</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04385120790890902</v>
+      </c>
+      <c r="D65">
+        <v>0.01162993088427625</v>
+      </c>
+      <c r="E65">
+        <v>-0.002932187992541916</v>
+      </c>
+      <c r="F65">
+        <v>-0.05523028744276809</v>
+      </c>
+      <c r="G65">
+        <v>-0.01696884749498319</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1334702297796531</v>
+        <v>0.1521407731330184</v>
       </c>
       <c r="C66">
-        <v>0.09397060139548866</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.05788288698814541</v>
+      </c>
+      <c r="D66">
+        <v>0.1199094157787324</v>
+      </c>
+      <c r="E66">
+        <v>0.06223657596841042</v>
+      </c>
+      <c r="F66">
+        <v>-0.0468056705827514</v>
+      </c>
+      <c r="G66">
+        <v>-0.01343543956366841</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.06925168946215056</v>
+        <v>0.07487330206542564</v>
       </c>
       <c r="C67">
-        <v>0.02681194144943343</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.009434746110136174</v>
+      </c>
+      <c r="D67">
+        <v>0.02414867152713078</v>
+      </c>
+      <c r="E67">
+        <v>-0.026782126273649</v>
+      </c>
+      <c r="F67">
+        <v>0.001738149197577497</v>
+      </c>
+      <c r="G67">
+        <v>0.006882579848714045</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.05004557307434188</v>
+        <v>0.06715842046072165</v>
       </c>
       <c r="C68">
-        <v>0.05007959674237782</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.04944145165509033</v>
+      </c>
+      <c r="D68">
+        <v>-0.2665217918082117</v>
+      </c>
+      <c r="E68">
+        <v>-0.05082144958248292</v>
+      </c>
+      <c r="F68">
+        <v>-0.01262132202096284</v>
+      </c>
+      <c r="G68">
+        <v>0.005499508309640268</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.04785751022993323</v>
+        <v>0.05060868781241828</v>
       </c>
       <c r="C69">
-        <v>0.03022010143327758</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.01337266650404868</v>
+      </c>
+      <c r="D69">
+        <v>0.0347563433765944</v>
+      </c>
+      <c r="E69">
+        <v>-0.01584349741540619</v>
+      </c>
+      <c r="F69">
+        <v>-0.003543103511466645</v>
+      </c>
+      <c r="G69">
+        <v>0.003198925028256299</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.004278758552424196</v>
+        <v>0.01410492832947403</v>
       </c>
       <c r="C70">
-        <v>-0.002504765202817367</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0008598898678216182</v>
+      </c>
+      <c r="D70">
+        <v>-0.00632264714105744</v>
+      </c>
+      <c r="E70">
+        <v>0.02415642652607113</v>
+      </c>
+      <c r="F70">
+        <v>-0.01082812013958096</v>
+      </c>
+      <c r="G70">
+        <v>0.01291588039659733</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.05279898503405654</v>
+        <v>0.07015342211396246</v>
       </c>
       <c r="C71">
-        <v>0.04827001584114825</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.04781410658471683</v>
+      </c>
+      <c r="D71">
+        <v>-0.2994750710462246</v>
+      </c>
+      <c r="E71">
+        <v>-0.04806397448742832</v>
+      </c>
+      <c r="F71">
+        <v>-0.0332673148538699</v>
+      </c>
+      <c r="G71">
+        <v>0.001798761145916443</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1285650155210428</v>
+        <v>0.1519976593456371</v>
       </c>
       <c r="C72">
-        <v>0.08069105938596299</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.05169062149726512</v>
+      </c>
+      <c r="D72">
+        <v>0.01130012243306974</v>
+      </c>
+      <c r="E72">
+        <v>0.09403139689546722</v>
+      </c>
+      <c r="F72">
+        <v>0.1596467799427509</v>
+      </c>
+      <c r="G72">
+        <v>-0.1143769302578821</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.2406776035954058</v>
+        <v>0.2683378581676892</v>
       </c>
       <c r="C73">
-        <v>0.1463621696103442</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.08768052553203107</v>
+      </c>
+      <c r="D73">
+        <v>0.06203516922868806</v>
+      </c>
+      <c r="E73">
+        <v>0.1894703303748225</v>
+      </c>
+      <c r="F73">
+        <v>-0.07046168036241252</v>
+      </c>
+      <c r="G73">
+        <v>0.1989031613724414</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.07522720893889201</v>
+        <v>0.08934187482682973</v>
       </c>
       <c r="C74">
-        <v>0.08425254775811337</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.06350986482209006</v>
+      </c>
+      <c r="D74">
+        <v>0.03409518558765627</v>
+      </c>
+      <c r="E74">
+        <v>0.004213816548449149</v>
+      </c>
+      <c r="F74">
+        <v>-0.0003959053463519536</v>
+      </c>
+      <c r="G74">
+        <v>0.02509591548814463</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.09372041402308333</v>
+        <v>0.1066412317124031</v>
       </c>
       <c r="C75">
-        <v>0.07228281242776263</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.04245112024239606</v>
+      </c>
+      <c r="D75">
+        <v>0.01602102279294652</v>
+      </c>
+      <c r="E75">
+        <v>-0.003695275211287283</v>
+      </c>
+      <c r="F75">
+        <v>-0.06731051909860651</v>
+      </c>
+      <c r="G75">
+        <v>0.006319622344315029</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.115252765323696</v>
+        <v>0.1316010824413553</v>
       </c>
       <c r="C76">
-        <v>0.1019132682187876</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.06935975683339247</v>
+      </c>
+      <c r="D76">
+        <v>0.0584321926237605</v>
+      </c>
+      <c r="E76">
+        <v>-0.007313640567158049</v>
+      </c>
+      <c r="F76">
+        <v>-0.06895557977774557</v>
+      </c>
+      <c r="G76">
+        <v>-0.0109654346697338</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.1104795235761813</v>
+        <v>0.1153426053235763</v>
       </c>
       <c r="C77">
-        <v>0.06683770698595036</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.029689346616134</v>
+      </c>
+      <c r="D77">
+        <v>0.03048478677806664</v>
+      </c>
+      <c r="E77">
+        <v>0.006834535692465339</v>
+      </c>
+      <c r="F77">
+        <v>-0.2113884391312436</v>
+      </c>
+      <c r="G77">
+        <v>-0.8871377324752191</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.0833822902526936</v>
+        <v>0.1037356707107087</v>
       </c>
       <c r="C78">
-        <v>0.04879159905583132</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03264236821737124</v>
+      </c>
+      <c r="D78">
+        <v>0.07716102041642098</v>
+      </c>
+      <c r="E78">
+        <v>-0.05186211576478956</v>
+      </c>
+      <c r="F78">
+        <v>0.004366725488014886</v>
+      </c>
+      <c r="G78">
+        <v>-0.01402695654276562</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1336386402149542</v>
+        <v>0.1512406685089037</v>
       </c>
       <c r="C79">
-        <v>0.1053352334968871</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.06535659712498589</v>
+      </c>
+      <c r="D79">
+        <v>0.02773248371192714</v>
+      </c>
+      <c r="E79">
+        <v>0.02494473359997056</v>
+      </c>
+      <c r="F79">
+        <v>-0.04165582250407407</v>
+      </c>
+      <c r="G79">
+        <v>0.006493587605737169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04172364414032117</v>
+        <v>0.04052650774168353</v>
       </c>
       <c r="C80">
-        <v>0.02018665894139067</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.007757362152086967</v>
+      </c>
+      <c r="D80">
+        <v>0.02819520806367151</v>
+      </c>
+      <c r="E80">
+        <v>0.0001355819347821242</v>
+      </c>
+      <c r="F80">
+        <v>0.01907441830864142</v>
+      </c>
+      <c r="G80">
+        <v>0.04288214787508157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1072931225906151</v>
+        <v>0.1206050422009173</v>
       </c>
       <c r="C81">
-        <v>0.08639864339898759</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.05473403467220028</v>
+      </c>
+      <c r="D81">
+        <v>0.03259466307752173</v>
+      </c>
+      <c r="E81">
+        <v>0.007094832135347832</v>
+      </c>
+      <c r="F81">
+        <v>-0.04157384702052599</v>
+      </c>
+      <c r="G81">
+        <v>0.04587374991140473</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1119767386611534</v>
+        <v>0.1247824746716457</v>
       </c>
       <c r="C82">
-        <v>0.09673919857284699</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.06178269665908594</v>
+      </c>
+      <c r="D82">
+        <v>0.03797835240702015</v>
+      </c>
+      <c r="E82">
+        <v>0.0309842091833891</v>
+      </c>
+      <c r="F82">
+        <v>-0.05935691780055339</v>
+      </c>
+      <c r="G82">
+        <v>0.03334460604870089</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.0728255698546917</v>
+        <v>0.07362677900825894</v>
       </c>
       <c r="C83">
-        <v>0.01906024964867431</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.003667302551657108</v>
+      </c>
+      <c r="D83">
+        <v>0.04417514376279433</v>
+      </c>
+      <c r="E83">
+        <v>-0.005441499862918016</v>
+      </c>
+      <c r="F83">
+        <v>-0.0111851277329599</v>
+      </c>
+      <c r="G83">
+        <v>0.08247323085906144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.02514307146962906</v>
+        <v>0.03279428900755966</v>
       </c>
       <c r="C84">
-        <v>0.02190998646571525</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01969088013335626</v>
+      </c>
+      <c r="D84">
+        <v>0.01575058478502168</v>
+      </c>
+      <c r="E84">
+        <v>-0.01846610878260465</v>
+      </c>
+      <c r="F84">
+        <v>0.03664779431189315</v>
+      </c>
+      <c r="G84">
+        <v>0.06150746099886825</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1179151541904606</v>
+        <v>0.1209864949245821</v>
       </c>
       <c r="C85">
-        <v>0.08612435768271431</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.04743906415254871</v>
+      </c>
+      <c r="D85">
+        <v>0.0293331439273267</v>
+      </c>
+      <c r="E85">
+        <v>-0.01171698966300964</v>
+      </c>
+      <c r="F85">
+        <v>-0.08657120692229371</v>
+      </c>
+      <c r="G85">
+        <v>0.0001859201457395404</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.04316911471790819</v>
+        <v>0.04554198143831506</v>
       </c>
       <c r="C86">
-        <v>0.02609529271879322</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.01063644200590472</v>
+      </c>
+      <c r="D86">
+        <v>0.01378861134541469</v>
+      </c>
+      <c r="E86">
+        <v>-0.04734842551213535</v>
+      </c>
+      <c r="F86">
+        <v>-0.01083566362427271</v>
+      </c>
+      <c r="G86">
+        <v>0.01352387483382042</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.114828303661176</v>
+        <v>0.1211854565485068</v>
       </c>
       <c r="C87">
-        <v>0.08469577749226474</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.04813811313614201</v>
+      </c>
+      <c r="D87">
+        <v>0.07223699443235497</v>
+      </c>
+      <c r="E87">
+        <v>-0.01837930221483166</v>
+      </c>
+      <c r="F87">
+        <v>-0.02447678205310506</v>
+      </c>
+      <c r="G87">
+        <v>-0.1084041321583279</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.05223983830875142</v>
+        <v>0.05727202496204219</v>
       </c>
       <c r="C88">
-        <v>0.04344488888353511</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.02629083443889388</v>
+      </c>
+      <c r="D88">
+        <v>0.02667671653385644</v>
+      </c>
+      <c r="E88">
+        <v>-0.02057216688406437</v>
+      </c>
+      <c r="F88">
+        <v>-0.009847749717590819</v>
+      </c>
+      <c r="G88">
+        <v>-0.01389692265504667</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.07009027048007174</v>
+        <v>0.1040172094117914</v>
       </c>
       <c r="C89">
-        <v>0.08066011640096193</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.07890889193737802</v>
+      </c>
+      <c r="D89">
+        <v>-0.3277688000046332</v>
+      </c>
+      <c r="E89">
+        <v>-0.08331938793960926</v>
+      </c>
+      <c r="F89">
+        <v>-0.05754014555079402</v>
+      </c>
+      <c r="G89">
+        <v>0.01415877285863688</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.06342112372313094</v>
+        <v>0.08677069331779531</v>
       </c>
       <c r="C90">
-        <v>0.06958231646051109</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.06651110795563996</v>
+      </c>
+      <c r="D90">
+        <v>-0.3087760849251041</v>
+      </c>
+      <c r="E90">
+        <v>-0.06849117508839668</v>
+      </c>
+      <c r="F90">
+        <v>0.01726969604519124</v>
+      </c>
+      <c r="G90">
+        <v>0.0193354209135066</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.07655502063918722</v>
+        <v>0.08683022405042608</v>
       </c>
       <c r="C91">
-        <v>0.06659007907204269</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.04307622133354979</v>
+      </c>
+      <c r="D91">
+        <v>0.03019592681757394</v>
+      </c>
+      <c r="E91">
+        <v>-0.007445253723931194</v>
+      </c>
+      <c r="F91">
+        <v>-0.0136542516701388</v>
+      </c>
+      <c r="G91">
+        <v>0.02091703730792044</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.07976936627679658</v>
+        <v>0.1027342009240589</v>
       </c>
       <c r="C92">
-        <v>0.07081348593737297</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.06570114277510196</v>
+      </c>
+      <c r="D92">
+        <v>-0.3286913608799659</v>
+      </c>
+      <c r="E92">
+        <v>-0.04619736819175355</v>
+      </c>
+      <c r="F92">
+        <v>-0.02050116642802513</v>
+      </c>
+      <c r="G92">
+        <v>-0.004562750500880184</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.05666076923458201</v>
+        <v>0.08351041308940485</v>
       </c>
       <c r="C93">
-        <v>0.06643343468218164</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.06616587060101485</v>
+      </c>
+      <c r="D93">
+        <v>-0.3010235876656173</v>
+      </c>
+      <c r="E93">
+        <v>-0.04101948932272203</v>
+      </c>
+      <c r="F93">
+        <v>-0.03432664026596086</v>
+      </c>
+      <c r="G93">
+        <v>-0.008040680204459555</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1226486356817837</v>
+        <v>0.1264573114738414</v>
       </c>
       <c r="C94">
-        <v>0.07827947189303694</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03666074979035755</v>
+      </c>
+      <c r="D94">
+        <v>0.05541856699142022</v>
+      </c>
+      <c r="E94">
+        <v>0.03083933968523362</v>
+      </c>
+      <c r="F94">
+        <v>-0.04812507482381002</v>
+      </c>
+      <c r="G94">
+        <v>0.02833510839631668</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1141452082304864</v>
+        <v>0.1213873714284126</v>
       </c>
       <c r="C95">
-        <v>0.05883990041154927</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.02720373090977117</v>
+      </c>
+      <c r="D95">
+        <v>0.05316673051069203</v>
+      </c>
+      <c r="E95">
+        <v>0.01244549995936925</v>
+      </c>
+      <c r="F95">
+        <v>-0.04098136458658468</v>
+      </c>
+      <c r="G95">
+        <v>0.002917011456328601</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2896,91 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1901522066136823</v>
+        <v>0.2223424424528924</v>
       </c>
       <c r="C97">
-        <v>0.08050835619033747</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.04174212801941423</v>
+      </c>
+      <c r="D97">
+        <v>-0.01193631392544748</v>
+      </c>
+      <c r="E97">
+        <v>0.1758096662242472</v>
+      </c>
+      <c r="F97">
+        <v>0.8913573855267788</v>
+      </c>
+      <c r="G97">
+        <v>-0.1612204135996699</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2294014689342871</v>
+        <v>0.256639200753676</v>
       </c>
       <c r="C98">
-        <v>0.1271857627410714</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.06562652119114655</v>
+      </c>
+      <c r="D98">
+        <v>0.0404559397841886</v>
+      </c>
+      <c r="E98">
+        <v>0.1499632706133454</v>
+      </c>
+      <c r="F98">
+        <v>-0.02771208545336089</v>
+      </c>
+      <c r="G98">
+        <v>0.2742228560101158</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.579117395011611</v>
+        <v>0.3724115700247573</v>
       </c>
       <c r="C99">
-        <v>-0.8052719004323258</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9171341135519724</v>
+      </c>
+      <c r="D99">
+        <v>-0.07509672047861718</v>
+      </c>
+      <c r="E99">
+        <v>-0.04283112809615025</v>
+      </c>
+      <c r="F99">
+        <v>-0.03893451975965481</v>
+      </c>
+      <c r="G99">
+        <v>0.005773005345806781</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2988,45 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.03529113509656467</v>
+        <v>0.04228418096481448</v>
       </c>
       <c r="C101">
-        <v>0.0325504685489772</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02495485426102909</v>
+      </c>
+      <c r="D101">
+        <v>0.01048374365227417</v>
+      </c>
+      <c r="E101">
+        <v>-0.03666730502772598</v>
+      </c>
+      <c r="F101">
+        <v>-0.011747152706253</v>
+      </c>
+      <c r="G101">
+        <v>0.01124668622590061</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
